--- a/res/klasszres_time_thai_25.xlsx
+++ b/res/klasszres_time_thai_25.xlsx
@@ -460,10 +460,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>71.05263157894737</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="D2" t="n">
-        <v>78.28947368421053</v>
+        <v>74.3421052631579</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52.63157894736842</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="D3" t="n">
-        <v>74.3421052631579</v>
+        <v>79.60526315789474</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="D4" t="n">
-        <v>65.13157894736842</v>
+        <v>67.76315789473685</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52.63157894736842</v>
+        <v>60.52631578947368</v>
       </c>
       <c r="D5" t="n">
         <v>71.05263157894737</v>
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="D18" t="n">
-        <v>78.94736842105263</v>
+        <v>71.71052631578947</v>
       </c>
     </row>
     <row r="19">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="D19" t="n">
-        <v>78.94736842105263</v>
+        <v>71.71052631578947</v>
       </c>
     </row>
     <row r="20">
@@ -748,10 +748,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="D20" t="n">
-        <v>78.94736842105263</v>
+        <v>71.71052631578947</v>
       </c>
     </row>
     <row r="21">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.5</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="D21" t="n">
-        <v>76.31578947368422</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="22">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="D22" t="n">
-        <v>76.31578947368422</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="23">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.5</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="D23" t="n">
-        <v>76.31578947368422</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="24">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="D24" t="n">
-        <v>77.63157894736842</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="25">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="D25" t="n">
-        <v>77.63157894736842</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="26">
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="D26" t="n">
-        <v>77.63157894736842</v>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="27">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="D27" t="n">
-        <v>78.28947368421053</v>
+        <v>75.6578947368421</v>
       </c>
     </row>
     <row r="28">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="D28" t="n">
-        <v>78.28947368421053</v>
+        <v>75.6578947368421</v>
       </c>
     </row>
     <row r="29">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="D29" t="n">
-        <v>78.28947368421053</v>
+        <v>75.6578947368421</v>
       </c>
     </row>
     <row r="30">
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.5</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="D74" t="n">
         <v>1</v>
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="D75" t="n">
         <v>1</v>
@@ -1772,10 +1772,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8552631578947368</v>
+        <v>0.7763157894736842</v>
       </c>
     </row>
     <row r="85">
@@ -1791,7 +1791,7 @@
         <v>0.6578947368421053</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7763157894736842</v>
+        <v>0.8026315789473685</v>
       </c>
     </row>
     <row r="86">
@@ -1804,10 +1804,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7302631578947368</v>
+        <v>0.7763157894736842</v>
       </c>
     </row>
     <row r="87">
@@ -1820,10 +1820,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7697368421052632</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="88">
@@ -2156,10 +2156,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.631578947368421</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="D108" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9539473684210527</v>
       </c>
     </row>
     <row r="109">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="D109" t="n">
         <v>0.9473684210526315</v>
@@ -2188,10 +2188,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="D110" t="n">
-        <v>0.9407894736842105</v>
+        <v>0.9736842105263158</v>
       </c>
     </row>
     <row r="111">
@@ -2204,10 +2204,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.6578947368421053</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="D111" t="n">
-        <v>0.9539473684210527</v>
+        <v>0.9342105263157895</v>
       </c>
     </row>
     <row r="112">
@@ -2412,10 +2412,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>63.1578947368421</v>
+        <v>60.52631578947368</v>
       </c>
       <c r="D124" t="n">
-        <v>67.76315789473685</v>
+        <v>69.73684210526315</v>
       </c>
     </row>
     <row r="125">
@@ -2428,10 +2428,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>63.1578947368421</v>
+        <v>76.31578947368422</v>
       </c>
       <c r="D125" t="n">
-        <v>72.36842105263158</v>
+        <v>73.02631578947368</v>
       </c>
     </row>
     <row r="126">
@@ -2447,7 +2447,7 @@
         <v>65.78947368421053</v>
       </c>
       <c r="D126" t="n">
-        <v>67.10526315789474</v>
+        <v>64.47368421052632</v>
       </c>
     </row>
     <row r="127">
@@ -2463,7 +2463,7 @@
         <v>71.05263157894737</v>
       </c>
       <c r="D127" t="n">
-        <v>68.42105263157895</v>
+        <v>70.39473684210526</v>
       </c>
     </row>
     <row r="128">
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>65.78947368421053</v>
+        <v>63.1578947368421</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8486842105263158</v>
+        <v>0.8618421052631579</v>
       </c>
     </row>
     <row r="141">
@@ -2684,10 +2684,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>60.52631578947368</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8486842105263158</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="142">
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>68.42105263157895</v>
+        <v>71.05263157894737</v>
       </c>
       <c r="D142" t="n">
-        <v>0.868421052631579</v>
+        <v>0.8486842105263158</v>
       </c>
     </row>
     <row r="143">
@@ -2716,10 +2716,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>71.05263157894737</v>
+        <v>73.68421052631578</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8486842105263158</v>
+        <v>0.8157894736842105</v>
       </c>
     </row>
     <row r="144">
@@ -2924,10 +2924,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>60.52631578947368</v>
+        <v>63.1578947368421</v>
       </c>
       <c r="D156" t="n">
-        <v>0.8092105263157895</v>
+        <v>0.8289473684210527</v>
       </c>
     </row>
     <row r="157">
@@ -2940,10 +2940,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>63.1578947368421</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="D157" t="n">
-        <v>0.8289473684210527</v>
+        <v>0.8618421052631579</v>
       </c>
     </row>
     <row r="158">
@@ -2956,10 +2956,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>60.52631578947368</v>
+        <v>63.1578947368421</v>
       </c>
       <c r="D158" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.7894736842105263</v>
       </c>
     </row>
     <row r="159">
@@ -2975,7 +2975,7 @@
         <v>73.68421052631578</v>
       </c>
       <c r="D159" t="n">
-        <v>0.8355263157894737</v>
+        <v>0.7894736842105263</v>
       </c>
     </row>
     <row r="160">
